--- a/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41611E6-EA9D-4DE1-9D28-BC1BC312F7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF7F1C8-AE6B-4DA4-985D-9445060CE81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,9 +768,9 @@
     <col min="1" max="2" width="2.5625" style="1"/>
     <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.0625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.0625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.0625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.0625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="2.5625" style="1"/>
   </cols>
   <sheetData>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF7F1C8-AE6B-4DA4-985D-9445060CE81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD89B45-16DA-4FE1-9F19-9D6FF77B3CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,6 +754,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA81E8B-E132-43A7-9DE6-1C1A37875CEB}">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D1:H13"/>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD89B45-16DA-4FE1-9F19-9D6FF77B3CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57195C9-A83D-4112-BA57-921730CB2EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>【A】</t>
     <phoneticPr fontId="1"/>
@@ -90,6 +90,16 @@
     <t>差分なし</t>
     <rPh sb="0" eb="2">
       <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較相手なし</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アイテ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -757,10 +767,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D1:H13"/>
+  <dimension ref="D1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -825,55 +835,63 @@
     </row>
     <row r="7" spans="4:8" hidden="1">
       <c r="D7" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="4:8" hidden="1">
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="4:8" hidden="1">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="4:8" hidden="1">
+      <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="10" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="4:8" hidden="1">
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="4:8" hidden="1">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="4:8" hidden="1">
+      <c r="D12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="10" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="4:8" hidden="1">
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="4:8" hidden="1">
-      <c r="D13" s="14"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="4:8" hidden="1">
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57195C9-A83D-4112-BA57-921730CB2EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D4435-F909-422E-8C85-6F8A2F8AC702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>【A】</t>
     <phoneticPr fontId="1"/>
@@ -214,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -303,12 +303,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -334,12 +414,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
@@ -372,6 +446,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,10 +865,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D1:H14"/>
+  <dimension ref="D1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -798,7 +896,7 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="11"/>
       <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
@@ -807,47 +905,47 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="4:8">
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="4:8" hidden="1">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="4:8" hidden="1">
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="4:8" hidden="1">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="4:8" hidden="1">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="4:8" hidden="1">
       <c r="D9" s="6"/>
@@ -855,31 +953,18 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="4:8" hidden="1">
-      <c r="D10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
+    <row r="10" spans="4:8" hidden="1"/>
     <row r="11" spans="4:8" hidden="1">
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="4:8" hidden="1">
-      <c r="D12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="4:8" hidden="1">
       <c r="D13" s="6"/>
@@ -887,11 +972,30 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="4:8" hidden="1">
-      <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
+    <row r="14" spans="4:8" hidden="1"/>
+    <row r="15" spans="4:8" hidden="1">
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="4:8" hidden="1">
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="4:7" hidden="1">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="4:7" hidden="1">
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result_book.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202412/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D4435-F909-422E-8C85-6F8A2F8AC702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4E3D4435-F909-422E-8C85-6F8A2F8AC702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FA932A7-6641-48A7-8A82-5B2367DA4ACC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>方眼Diff © 2018-2024 nmby</t>
-    <rPh sb="0" eb="2">
-      <t>ホウガン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -100,6 +93,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方眼Diff © 2018-2025 nmby</t>
+    <rPh sb="0" eb="2">
+      <t>ホウガン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -885,11 +885,11 @@
   <sheetData>
     <row r="1" spans="4:8">
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="5"/>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="4:8">
@@ -898,7 +898,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="4:8">
@@ -925,7 +925,7 @@
     </row>
     <row r="6" spans="4:8" hidden="1">
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -933,7 +933,7 @@
     </row>
     <row r="7" spans="4:8" hidden="1">
       <c r="D7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -941,7 +941,7 @@
     </row>
     <row r="8" spans="4:8" hidden="1">
       <c r="D8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
